--- a/biology/Médecine/Anthony_Epstein/Anthony_Epstein.xlsx
+++ b/biology/Médecine/Anthony_Epstein/Anthony_Epstein.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sir Michael Anthony Epstein, né le 18 mai 1921 à Londres et mort le 6 février 2024[1],[2], également connu sous le nom d'Anthony Epstein[3], est un pathologiste et universitaire britannique. Il est l'un des découvreurs du virus d'Epstein-Barr, avec Yvonne Barr et Bert Achong[4],[5],[6],[7],[8],[9],[10],[11].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sir Michael Anthony Epstein, né le 18 mai 1921 à Londres et mort le 6 février 2024 également connu sous le nom d'Anthony Epstein, est un pathologiste et universitaire britannique. Il est l'un des découvreurs du virus d'Epstein-Barr, avec Yvonne Barr et Bert Achong.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anthony Epstein est né le 18 mai 1921[12],[13] et fait ses études à la St Paul's School de Londres[14], au Trinity College de Cambridge et au Middlesex Hospital Medical School.
-Il a eu 100 ans en mai 2021[15],[16]. Il est mécène d'Humanists UK[12].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anthony Epstein est né le 18 mai 1921, et fait ses études à la St Paul's School de Londres, au Trinity College de Cambridge et au Middlesex Hospital Medical School.
+Il a eu 100 ans en mai 2021,. Il est mécène d'Humanists UK.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anthony Epstein est professeur de pathologie de 1968 à 1985 (aujourd'hui professeur émérite), chef de département de 1968 à 1982[17] à l'université de Bristol[18].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anthony Epstein est professeur de pathologie de 1968 à 1985 (aujourd'hui professeur émérite), chef de département de 1968 à 1982 à l'université de Bristol.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Études sur le lymphome de Burkitt</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anthony Epstein est la première personne à proposer que le lymphome de Burkitt est un cancer causé par un virus. Après avoir entendu une conférence donnée par Denis Parsons Burkitt en 1961 sur ce cancer nouvellement décrit, il change son objectif de recherche, passant des virus cancérigènes chez les poulets à la recherche d'une origine virale du lymphome de Burkitt[19]. Après plus de deux ans de travail avec des cellules tumorales des patients de Burkitt et ensuite de travail pour en isoler un virus, le virus Epstein-Barr est finalement découvert en février 1964[20].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anthony Epstein est la première personne à proposer que le lymphome de Burkitt est un cancer causé par un virus. Après avoir entendu une conférence donnée par Denis Parsons Burkitt en 1961 sur ce cancer nouvellement décrit, il change son objectif de recherche, passant des virus cancérigènes chez les poulets à la recherche d'une origine virale du lymphome de Burkitt. Après plus de deux ans de travail avec des cellules tumorales des patients de Burkitt et ensuite de travail pour en isoler un virus, le virus Epstein-Barr est finalement découvert en février 1964.
 </t>
         </is>
       </c>
@@ -605,14 +623,16 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Il est élu membre de la Royal Society of London en 1979 et en est le vice-président[3] de 1986 à 1991.
-Il reçoit sa médaille royale en 1992[21]
-Il reçoit l'ordre de l'Empire britannique en 1985 [22]
-Il est fait chevalier en 1991[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Il est élu membre de la Royal Society of London en 1979 et en est le vice-président de 1986 à 1991.
+Il reçoit sa médaille royale en 1992
+Il reçoit l'ordre de l'Empire britannique en 1985 
+Il est fait chevalier en 1991.
 Il est membre du Wolfson College d'Oxford de 1986 à 2001 et en est membre honoraire depuis 2001.
-Il est membre fondateur de l'Académie des sciences médicales en 1998[23].</t>
+Il est membre fondateur de l'Académie des sciences médicales en 1998.</t>
         </is>
       </c>
     </row>
@@ -640,7 +660,9 @@
           <t>Titre honorifique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2006, il obtient un doctorat honoris causa en sciences de l'université de Bristol. 
 </t>
